--- a/horarios_optimizados-827-push_gap_0.80.xlsx
+++ b/horarios_optimizados-827-push_gap_0.80.xlsx
@@ -653,18 +653,38 @@
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -685,52 +705,52 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q6" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S6" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T6" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U6" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V6" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W6" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr"/>
       <c r="Y6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
@@ -770,7 +790,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J7" s="4" t="inlineStr"/>
       <c r="K7" s="5" t="inlineStr">
         <is>
@@ -797,9 +821,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
+      <c r="P7" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="Q7" s="6" t="inlineStr">
@@ -858,15 +882,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K8" s="4" t="inlineStr"/>
-      <c r="L8" s="4" t="inlineStr"/>
-      <c r="M8" s="4" t="inlineStr"/>
-      <c r="N8" s="4" t="inlineStr"/>
+      <c r="J8" s="4" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -877,46 +913,38 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W8" s="4" t="inlineStr"/>
+      <c r="X8" s="4" t="inlineStr"/>
       <c r="Y8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
@@ -926,34 +954,50 @@
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr"/>
-      <c r="C9" s="4" t="inlineStr"/>
-      <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr"/>
-      <c r="G9" s="4" t="inlineStr"/>
-      <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="4" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr"/>
+      <c r="L9" s="4" t="inlineStr"/>
+      <c r="M9" s="4" t="inlineStr"/>
+      <c r="N9" s="4" t="inlineStr"/>
       <c r="O9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -964,7 +1008,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -990,16 +1038,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W9" s="4" t="inlineStr"/>
+      <c r="X9" s="4" t="inlineStr"/>
       <c r="Y9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1008,38 +1048,50 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr"/>
-      <c r="C10" s="4" t="inlineStr"/>
-      <c r="D10" s="4" t="inlineStr"/>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr"/>
-      <c r="G10" s="4" t="inlineStr"/>
-      <c r="H10" s="4" t="inlineStr"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I10" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J10" s="4" t="inlineStr"/>
+      <c r="K10" s="4" t="inlineStr"/>
+      <c r="L10" s="4" t="inlineStr"/>
+      <c r="M10" s="4" t="inlineStr"/>
       <c r="N10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1055,7 +1107,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1086,16 +1142,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="X10" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1104,11 +1156,31 @@
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr"/>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
-      <c r="G11" s="4" t="inlineStr"/>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1124,22 +1196,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K11" s="4" t="inlineStr"/>
       <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr"/>
       <c r="O11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1311,28 +1371,20 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="inlineStr"/>
+      <c r="M15" s="4" t="inlineStr"/>
+      <c r="N15" s="4" t="inlineStr"/>
       <c r="O15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1343,30 +1395,46 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q15" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R15" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S15" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T15" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U15" s="4" t="inlineStr"/>
-      <c r="V15" s="4" t="inlineStr"/>
-      <c r="W15" s="4" t="inlineStr"/>
-      <c r="X15" s="4" t="inlineStr"/>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1407,55 +1475,39 @@
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr"/>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr"/>
+      <c r="H17" s="4" t="inlineStr"/>
+      <c r="I17" s="4" t="inlineStr"/>
       <c r="J17" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K17" s="4" t="inlineStr"/>
-      <c r="L17" s="4" t="inlineStr"/>
-      <c r="M17" s="4" t="inlineStr"/>
-      <c r="N17" s="4" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr"/>
       <c r="P17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1545,69 +1597,65 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J18" s="4" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr"/>
+      <c r="M18" s="4" t="inlineStr"/>
+      <c r="N18" s="4" t="inlineStr"/>
       <c r="O18" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P18" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q18" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R18" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S18" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T18" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U18" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V18" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W18" s="4" t="inlineStr"/>
-      <c r="X18" s="4" t="inlineStr"/>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1617,55 +1665,35 @@
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr"/>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K19" s="4" t="inlineStr"/>
-      <c r="L19" s="4" t="inlineStr"/>
-      <c r="M19" s="4" t="inlineStr"/>
-      <c r="N19" s="4" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr"/>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr"/>
+      <c r="H19" s="4" t="inlineStr"/>
+      <c r="I19" s="4" t="inlineStr"/>
+      <c r="J19" s="4" t="inlineStr"/>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O19" s="4" t="inlineStr"/>
       <c r="P19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1681,16 +1709,36 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S19" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr"/>
-      <c r="V19" s="4" t="inlineStr"/>
-      <c r="W19" s="4" t="inlineStr"/>
-      <c r="X19" s="4" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1699,10 +1747,26 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1723,70 +1787,70 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K20" s="4" t="inlineStr"/>
-      <c r="L20" s="4" t="inlineStr"/>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O20" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P20" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q20" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R20" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S20" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T20" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U20" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V20" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W20" s="4" t="inlineStr"/>
+      <c r="X20" s="4" t="inlineStr"/>
+      <c r="Y20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1795,55 +1859,35 @@
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr"/>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr"/>
-      <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr"/>
+      <c r="I21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr"/>
       <c r="P21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1984,55 +2028,39 @@
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr"/>
+      <c r="I25" s="4" t="inlineStr"/>
       <c r="J25" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K25" s="4" t="inlineStr"/>
-      <c r="L25" s="4" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr"/>
-      <c r="O25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O25" s="4" t="inlineStr"/>
       <c r="P25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2196,82 +2224,22 @@
       <c r="F27" s="4" t="inlineStr"/>
       <c r="G27" s="4" t="inlineStr"/>
       <c r="H27" s="4" t="inlineStr"/>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I27" s="4" t="inlineStr"/>
+      <c r="J27" s="4" t="inlineStr"/>
+      <c r="K27" s="4" t="inlineStr"/>
+      <c r="L27" s="4" t="inlineStr"/>
+      <c r="M27" s="4" t="inlineStr"/>
+      <c r="N27" s="4" t="inlineStr"/>
+      <c r="O27" s="4" t="inlineStr"/>
       <c r="P27" s="4" t="inlineStr"/>
-      <c r="Q27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q27" s="4" t="inlineStr"/>
+      <c r="R27" s="4" t="inlineStr"/>
+      <c r="S27" s="4" t="inlineStr"/>
+      <c r="T27" s="4" t="inlineStr"/>
+      <c r="U27" s="4" t="inlineStr"/>
+      <c r="V27" s="4" t="inlineStr"/>
+      <c r="W27" s="4" t="inlineStr"/>
+      <c r="X27" s="4" t="inlineStr"/>
       <c r="Y27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2288,21 +2256,77 @@
       <c r="G28" s="4" t="inlineStr"/>
       <c r="H28" s="4" t="inlineStr"/>
       <c r="I28" s="4" t="inlineStr"/>
-      <c r="J28" s="4" t="inlineStr"/>
-      <c r="K28" s="4" t="inlineStr"/>
-      <c r="L28" s="4" t="inlineStr"/>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr"/>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O28" s="4" t="inlineStr"/>
-      <c r="P28" s="4" t="inlineStr"/>
-      <c r="Q28" s="4" t="inlineStr"/>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr"/>
-      <c r="T28" s="4" t="inlineStr"/>
-      <c r="U28" s="4" t="inlineStr"/>
-      <c r="V28" s="4" t="inlineStr"/>
-      <c r="W28" s="4" t="inlineStr"/>
-      <c r="X28" s="4" t="inlineStr"/>
+      <c r="P28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2312,35 +2336,55 @@
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr"/>
-      <c r="C29" s="4" t="inlineStr"/>
-      <c r="D29" s="4" t="inlineStr"/>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
-      <c r="H29" s="4" t="inlineStr"/>
-      <c r="I29" s="4" t="inlineStr"/>
-      <c r="J29" s="4" t="inlineStr"/>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O29" s="4" t="inlineStr"/>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr"/>
+      <c r="L29" s="4" t="inlineStr"/>
+      <c r="M29" s="4" t="inlineStr"/>
+      <c r="N29" s="4" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2356,36 +2400,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S29" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T29" s="4" t="inlineStr"/>
+      <c r="U29" s="4" t="inlineStr"/>
+      <c r="V29" s="4" t="inlineStr"/>
+      <c r="W29" s="4" t="inlineStr"/>
+      <c r="X29" s="4" t="inlineStr"/>
       <c r="Y29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2394,26 +2418,10 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B30" s="4" t="inlineStr"/>
+      <c r="C30" s="4" t="inlineStr"/>
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr"/>
       <c r="F30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2434,70 +2442,70 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J30" s="4" t="inlineStr"/>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O30" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P30" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q30" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R30" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S30" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T30" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U30" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V30" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W30" s="4" t="inlineStr"/>
-      <c r="X30" s="4" t="inlineStr"/>
-      <c r="Y30" s="4" t="inlineStr"/>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K30" s="4" t="inlineStr"/>
+      <c r="L30" s="4" t="inlineStr"/>
+      <c r="M30" s="4" t="inlineStr"/>
+      <c r="N30" s="4" t="inlineStr"/>
+      <c r="O30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2531,8 +2539,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="4" t="inlineStr"/>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J31" s="4" t="inlineStr"/>
       <c r="K31" s="5" t="inlineStr">
         <is>
@@ -2671,22 +2687,42 @@
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr"/>
-      <c r="C35" s="4" t="inlineStr"/>
-      <c r="D35" s="4" t="inlineStr"/>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="4" t="inlineStr"/>
-      <c r="G35" s="4" t="inlineStr"/>
-      <c r="H35" s="4" t="inlineStr"/>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I35" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="J35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J35" s="4" t="inlineStr"/>
       <c r="K35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2707,52 +2743,40 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O35" s="4" t="inlineStr"/>
-      <c r="P35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P35" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q35" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R35" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S35" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T35" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U35" s="4" t="inlineStr"/>
+      <c r="V35" s="4" t="inlineStr"/>
+      <c r="W35" s="4" t="inlineStr"/>
+      <c r="X35" s="4" t="inlineStr"/>
       <c r="Y35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
@@ -2762,42 +2786,22 @@
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr"/>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C36" s="4" t="inlineStr"/>
+      <c r="D36" s="4" t="inlineStr"/>
+      <c r="E36" s="4" t="inlineStr"/>
+      <c r="F36" s="4" t="inlineStr"/>
+      <c r="G36" s="4" t="inlineStr"/>
+      <c r="H36" s="4" t="inlineStr"/>
       <c r="I36" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="J36" s="4" t="inlineStr"/>
+      <c r="J36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2818,52 +2822,52 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X36" s="4" t="inlineStr"/>
+      <c r="O36" s="4" t="inlineStr"/>
+      <c r="P36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2873,28 +2877,100 @@
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr"/>
-      <c r="C37" s="4" t="inlineStr"/>
-      <c r="D37" s="4" t="inlineStr"/>
-      <c r="E37" s="4" t="inlineStr"/>
-      <c r="F37" s="4" t="inlineStr"/>
-      <c r="G37" s="4" t="inlineStr"/>
-      <c r="H37" s="4" t="inlineStr"/>
-      <c r="I37" s="4" t="inlineStr"/>
-      <c r="J37" s="4" t="inlineStr"/>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K37" s="4" t="inlineStr"/>
       <c r="L37" s="4" t="inlineStr"/>
       <c r="M37" s="4" t="inlineStr"/>
       <c r="N37" s="4" t="inlineStr"/>
-      <c r="O37" s="4" t="inlineStr"/>
-      <c r="P37" s="4" t="inlineStr"/>
-      <c r="Q37" s="4" t="inlineStr"/>
-      <c r="R37" s="4" t="inlineStr"/>
-      <c r="S37" s="4" t="inlineStr"/>
-      <c r="T37" s="4" t="inlineStr"/>
-      <c r="U37" s="4" t="inlineStr"/>
-      <c r="V37" s="4" t="inlineStr"/>
-      <c r="W37" s="4" t="inlineStr"/>
-      <c r="X37" s="4" t="inlineStr"/>
+      <c r="O37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y37" s="4" t="inlineStr"/>
     </row>
     <row r="38">
@@ -2911,77 +2987,21 @@
       <c r="G38" s="4" t="inlineStr"/>
       <c r="H38" s="4" t="inlineStr"/>
       <c r="I38" s="4" t="inlineStr"/>
-      <c r="J38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J38" s="4" t="inlineStr"/>
+      <c r="K38" s="4" t="inlineStr"/>
+      <c r="L38" s="4" t="inlineStr"/>
+      <c r="M38" s="4" t="inlineStr"/>
+      <c r="N38" s="4" t="inlineStr"/>
+      <c r="O38" s="4" t="inlineStr"/>
+      <c r="P38" s="4" t="inlineStr"/>
       <c r="Q38" s="4" t="inlineStr"/>
-      <c r="R38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R38" s="4" t="inlineStr"/>
+      <c r="S38" s="4" t="inlineStr"/>
+      <c r="T38" s="4" t="inlineStr"/>
+      <c r="U38" s="4" t="inlineStr"/>
+      <c r="V38" s="4" t="inlineStr"/>
+      <c r="W38" s="4" t="inlineStr"/>
+      <c r="X38" s="4" t="inlineStr"/>
       <c r="Y38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
@@ -2991,50 +3011,34 @@
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr"/>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr"/>
-      <c r="L39" s="4" t="inlineStr"/>
-      <c r="M39" s="4" t="inlineStr"/>
-      <c r="N39" s="4" t="inlineStr"/>
+      <c r="C39" s="4" t="inlineStr"/>
+      <c r="D39" s="4" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr"/>
+      <c r="H39" s="4" t="inlineStr"/>
+      <c r="I39" s="4" t="inlineStr"/>
+      <c r="J39" s="4" t="inlineStr"/>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3050,11 +3054,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R39" s="4" t="inlineStr"/>
       <c r="S39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3075,8 +3075,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W39" s="4" t="inlineStr"/>
-      <c r="X39" s="4" t="inlineStr"/>
+      <c r="W39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3085,50 +3093,38 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B40" s="4" t="inlineStr"/>
+      <c r="C40" s="4" t="inlineStr"/>
+      <c r="D40" s="4" t="inlineStr"/>
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="inlineStr"/>
       <c r="I40" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr"/>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
-      <c r="M40" s="4" t="inlineStr"/>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3149,11 +3145,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R40" s="4" t="inlineStr"/>
       <c r="S40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3179,12 +3171,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X40" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y40" s="4" t="inlineStr"/>
+      <c r="X40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -3200,7 +3196,11 @@
       <c r="G41" s="4" t="inlineStr"/>
       <c r="H41" s="4" t="inlineStr"/>
       <c r="I41" s="4" t="inlineStr"/>
-      <c r="J41" s="4" t="inlineStr"/>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K41" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3402,29 +3402,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3464,10 +3464,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -3493,24 +3493,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -3531,29 +3531,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3574,29 +3574,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3617,17 +3617,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3636,10 +3636,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3665,24 +3665,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -3734,17 +3734,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3753,10 +3753,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -3782,24 +3782,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3820,29 +3820,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>6.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -3863,29 +3863,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -3906,17 +3906,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3925,10 +3925,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -3949,17 +3949,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3968,10 +3968,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -4035,29 +4035,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4078,17 +4066,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -4109,29 +4109,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>6.5</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -4152,29 +4152,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4214,10 +4214,10 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -4238,26 +4238,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I23" t="n">
         <v>0.5</v>
@@ -4281,26 +4281,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="I24" t="n">
         <v>0.5</v>
@@ -4324,17 +4324,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -4355,29 +4367,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4398,29 +4398,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28">
@@ -4441,29 +4441,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -4503,7 +4503,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
         <v>0.5</v>
